--- a/_book/Book1.xlsx
+++ b/_book/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
   <si>
     <t>APIs</t>
   </si>
@@ -372,6 +372,18 @@
   </si>
   <si>
     <t>10-jsx.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. monday  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2. tuesday  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3. wednesday  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4. thursday  </t>
   </si>
 </sst>
 </file>
@@ -1134,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,8 +1443,11 @@
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="12" t="s">
         <v>30</v>
@@ -1445,8 +1460,11 @@
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="12" t="s">
         <v>31</v>
@@ -1459,8 +1477,11 @@
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="12" t="s">
         <v>32</v>
@@ -1473,8 +1494,11 @@
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="12" t="s">
         <v>33</v>
@@ -1488,7 +1512,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="12" t="s">
         <v>34</v>
@@ -1502,7 +1526,7 @@
       <c r="G21" s="21"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="12" t="s">
         <v>35</v>
@@ -1516,7 +1540,7 @@
       <c r="G22" s="21"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="12" t="s">
         <v>36</v>
@@ -1530,7 +1554,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="12" t="s">
         <v>37</v>
@@ -1544,7 +1568,7 @@
       <c r="G24" s="21"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="12" t="s">
         <v>38</v>
@@ -1558,7 +1582,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
       <c r="B26" s="25" t="s">
         <v>16</v>
@@ -1572,7 +1596,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>3</v>
       </c>
@@ -1587,7 +1611,7 @@
       <c r="G27" s="21"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
       <c r="B28" s="12" t="s">
         <v>40</v>
@@ -1601,7 +1625,7 @@
       <c r="G28" s="21"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -1615,7 +1639,7 @@
       <c r="G29" s="21"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
       <c r="B30" s="12" t="s">
         <v>42</v>
@@ -1629,7 +1653,7 @@
       <c r="G30" s="24"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20"/>
       <c r="B31" s="12" t="s">
         <v>43</v>
@@ -1645,7 +1669,7 @@
       <c r="G31" s="51"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
       <c r="B32" s="12" t="s">
         <v>16</v>

--- a/_book/Book1.xlsx
+++ b/_book/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="122">
   <si>
     <t>APIs</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t xml:space="preserve">  4. thursday  </t>
+  </si>
+  <si>
+    <t>DOM-1</t>
+  </si>
+  <si>
+    <t>DOM-2</t>
   </si>
 </sst>
 </file>
@@ -818,9 +824,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -863,6 +866,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1146,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:I21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="B38:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,16 +1178,18 @@
       <c r="E1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="36"/>
+      <c r="G1" s="52" t="s">
+        <v>120</v>
+      </c>
       <c r="H1" s="1"/>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28"/>
@@ -1191,16 +1199,16 @@
       <c r="C2" s="21"/>
       <c r="D2" s="5"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="19"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
@@ -1210,18 +1218,18 @@
       <c r="C3" s="30"/>
       <c r="D3" s="4"/>
       <c r="E3" s="20"/>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="5"/>
       <c r="I3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="52"/>
+      <c r="K3" s="51"/>
     </row>
     <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
@@ -1231,10 +1239,12 @@
       <c r="C4" s="30"/>
       <c r="D4" s="4"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="52" t="s">
+        <v>121</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="18"/>
       <c r="J4" s="12" t="s">
@@ -1266,18 +1276,18 @@
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="5"/>
       <c r="E6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="5"/>
       <c r="I6" s="22"/>
       <c r="J6" s="25" t="s">
@@ -1294,10 +1304,10 @@
       <c r="C7" s="30"/>
       <c r="D7" s="4"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="45"/>
+      <c r="G7" s="44"/>
       <c r="H7" s="1"/>
       <c r="K7" s="9"/>
       <c r="L7" s="5"/>
@@ -1310,10 +1320,10 @@
       <c r="C8" s="30"/>
       <c r="D8" s="4"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="5"/>
       <c r="I8" s="2"/>
       <c r="K8" s="4"/>
@@ -1327,10 +1337,10 @@
       <c r="C9" s="30"/>
       <c r="D9" s="4"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="46"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="K9" s="1"/>
@@ -1344,10 +1354,10 @@
       <c r="C10" s="32"/>
       <c r="D10" s="4"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="5"/>
       <c r="I10" t="s">
         <v>97</v>
@@ -1360,74 +1370,74 @@
       <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="5"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="47"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="48"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="5"/>
       <c r="E13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="43"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="5"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="45"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="5"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="46"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1438,10 +1448,10 @@
       <c r="C16" s="21"/>
       <c r="D16" s="5"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="5"/>
       <c r="I16" t="s">
         <v>116</v>
@@ -1455,10 +1465,10 @@
       <c r="C17" s="27"/>
       <c r="D17" s="1"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="5"/>
       <c r="I17" t="s">
         <v>117</v>
@@ -1472,10 +1482,10 @@
       <c r="C18" s="29"/>
       <c r="D18" s="1"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="5"/>
       <c r="I18" t="s">
         <v>118</v>
@@ -1489,10 +1499,10 @@
       <c r="C19" s="21"/>
       <c r="D19" s="5"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="5"/>
       <c r="I19" t="s">
         <v>119</v>
@@ -1506,10 +1516,10 @@
       <c r="C20" s="21"/>
       <c r="D20" s="5"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1520,10 +1530,10 @@
       <c r="C21" s="21"/>
       <c r="D21" s="5"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1534,10 +1544,10 @@
       <c r="C22" s="21"/>
       <c r="D22" s="5"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1660,13 +1670,13 @@
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="49" t="s">
+      <c r="E31" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="51"/>
+      <c r="G31" s="50"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1677,10 +1687,10 @@
       <c r="C32" s="21"/>
       <c r="D32" s="5"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="19"/>
+      <c r="G32" s="44"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1701,10 +1711,10 @@
       <c r="A34" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="51"/>
       <c r="E34" s="20"/>
       <c r="F34" s="12" t="s">
         <v>73</v>
@@ -1714,10 +1724,10 @@
     </row>
     <row r="35" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="19"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="1"/>
       <c r="E35" s="20"/>
       <c r="F35" s="12" t="s">
@@ -1728,10 +1738,10 @@
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="21"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="5"/>
       <c r="E36" s="20"/>
       <c r="F36" s="12" t="s">
@@ -1742,10 +1752,10 @@
     </row>
     <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="21"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="5"/>
       <c r="E37" s="20"/>
       <c r="F37" s="12" t="s">
@@ -1756,10 +1766,10 @@
     </row>
     <row r="38" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="21"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="5"/>
       <c r="E38" s="20"/>
       <c r="F38" s="13" t="s">
@@ -1906,10 +1916,10 @@
       <c r="E48" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="42" t="s">
+      <c r="F48" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="G48" s="44"/>
+      <c r="G48" s="43"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1920,10 +1930,10 @@
       <c r="C49" s="24"/>
       <c r="D49" s="5"/>
       <c r="E49" s="18"/>
-      <c r="F49" s="43" t="s">
+      <c r="F49" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="G49" s="45"/>
+      <c r="G49" s="44"/>
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1931,10 +1941,10 @@
       <c r="C50" s="11"/>
       <c r="D50" s="8"/>
       <c r="E50" s="20"/>
-      <c r="F50" s="43" t="s">
+      <c r="F50" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="G50" s="46"/>
+      <c r="G50" s="45"/>
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1942,25 +1952,25 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="20"/>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="G51" s="21"/>
+      <c r="G51" s="45"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E52" s="20"/>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="G52" s="21"/>
+      <c r="G52" s="45"/>
     </row>
     <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E53" s="20"/>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G53" s="21"/>
+      <c r="G53" s="45"/>
     </row>
     <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E54" s="20"/>

--- a/_book/Book1.xlsx
+++ b/_book/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
   <si>
     <t>APIs</t>
   </si>
@@ -317,12 +317,6 @@
     <t>08-api-testing.md</t>
   </si>
   <si>
-    <t>gitworkflow</t>
-  </si>
-  <si>
-    <t>portfolio</t>
-  </si>
-  <si>
     <t>01-functions.md</t>
   </si>
   <si>
@@ -374,22 +368,22 @@
     <t>10-jsx.md</t>
   </si>
   <si>
-    <t xml:space="preserve">1. monday  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2. tuesday  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3. wednesday  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4. thursday  </t>
-  </si>
-  <si>
     <t>DOM-1</t>
   </si>
   <si>
     <t>DOM-2</t>
+  </si>
+  <si>
+    <t>git add --all</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>git commit -m "message"</t>
+  </si>
+  <si>
+    <t>git push origin master</t>
   </si>
 </sst>
 </file>
@@ -425,7 +419,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +444,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -731,7 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -767,25 +767,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -804,14 +794,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -868,6 +851,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1152,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="B38:C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,838 +1160,832 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="52" t="s">
-        <v>120</v>
+      <c r="G1" s="45" t="s">
+        <v>114</v>
       </c>
       <c r="H1" s="1"/>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="42" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="44"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="42" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="45"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="51"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="42" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="52" t="s">
-        <v>121</v>
+      <c r="G4" s="45" t="s">
+        <v>115</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="15"/>
+      <c r="J4" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="30"/>
+      <c r="K4" s="46"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="12" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="19"/>
+      <c r="K5" s="37"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="43"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="25" t="s">
+      <c r="I6" s="18"/>
+      <c r="J6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="24"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="42" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="1"/>
       <c r="K7" s="9"/>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="42" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="45"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="5"/>
       <c r="I8" s="2"/>
       <c r="K8" s="4"/>
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="42" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="45"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="42" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="45"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="5"/>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="5"/>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="5"/>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="J10" t="s">
+      <c r="G13" s="36"/>
+      <c r="H13" s="5"/>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="35" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="14" t="s">
+      <c r="G14" s="37"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="38"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="38"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="38"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="38"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="38"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="38"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="38"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="38"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="5"/>
-      <c r="I16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="5"/>
-      <c r="I17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="5"/>
-      <c r="I18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="5"/>
-      <c r="I19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="12" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="12" t="s">
+      <c r="G26" s="38"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="25" t="s">
+      <c r="G27" s="38"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="38"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="38"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="24"/>
+      <c r="G30" s="20"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="12" t="s">
+    <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="50"/>
+      <c r="G31" s="43"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
+    <row r="32" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
       <c r="B32" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="21"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="42" t="s">
+      <c r="E32" s="15"/>
+      <c r="F32" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="44"/>
+      <c r="G32" s="37"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="25" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="24"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="12" t="s">
+      <c r="E33" s="16"/>
+      <c r="F33" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="21"/>
+      <c r="G33" s="38"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="12" t="s">
+      <c r="C34" s="44"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="21"/>
+      <c r="G34" s="38"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="42" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="44"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="12" t="s">
+      <c r="E35" s="16"/>
+      <c r="F35" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="G35" s="21"/>
+      <c r="G35" s="38"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="42" t="s">
+      <c r="A36" s="16"/>
+      <c r="B36" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="45"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="12" t="s">
+      <c r="E36" s="16"/>
+      <c r="F36" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="G36" s="21"/>
+      <c r="G36" s="38"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="42" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="45"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="12" t="s">
+      <c r="E37" s="16"/>
+      <c r="F37" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="G37" s="21"/>
+      <c r="G37" s="38"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="42" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="38"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="13" t="s">
+      <c r="E38" s="16"/>
+      <c r="F38" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="21"/>
+      <c r="G38" s="38"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="16"/>
+      <c r="B39" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="21"/>
+      <c r="C39" s="38"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="12" t="s">
+      <c r="E39" s="16"/>
+      <c r="F39" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="G39" s="21"/>
+      <c r="G39" s="38"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="12" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="21"/>
+      <c r="C40" s="38"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="23" t="s">
+      <c r="E40" s="27"/>
+      <c r="F40" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="35"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="21"/>
+      <c r="C41" s="38"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="26"/>
+      <c r="G41" s="36"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="12" t="s">
+      <c r="A42" s="16"/>
+      <c r="B42" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="21"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="12" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="37"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="21"/>
+      <c r="C43" s="38"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="12" t="s">
+      <c r="E43" s="16"/>
+      <c r="F43" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G43" s="21"/>
+      <c r="G43" s="38"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="12" t="s">
+      <c r="A44" s="16"/>
+      <c r="B44" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="21"/>
+      <c r="C44" s="38"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="12" t="s">
+      <c r="E44" s="16"/>
+      <c r="F44" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="G44" s="21"/>
+      <c r="G44" s="38"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="16"/>
+      <c r="B45" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="21"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="12" t="s">
+      <c r="E45" s="16"/>
+      <c r="F45" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="G45" s="21"/>
+      <c r="G45" s="38"/>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="16"/>
+      <c r="B46" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="21"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="12" t="s">
+      <c r="E46" s="16"/>
+      <c r="F46" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="G46" s="21"/>
+      <c r="G46" s="38"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="12" t="s">
+      <c r="A47" s="16"/>
+      <c r="B47" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="21"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="25" t="s">
+      <c r="E47" s="18"/>
+      <c r="F47" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="24"/>
+      <c r="G47" s="20"/>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="13" t="s">
+      <c r="A48" s="16"/>
+      <c r="B48" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="21"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="33" t="s">
+      <c r="E48" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="41" t="s">
+      <c r="F48" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="G48" s="43"/>
+      <c r="G48" s="36"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23" t="s">
+      <c r="A49" s="18"/>
+      <c r="B49" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="24"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="42" t="s">
+      <c r="E49" s="15"/>
+      <c r="F49" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="G49" s="44"/>
+      <c r="G49" s="37"/>
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="C50" s="11"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="42" t="s">
+      <c r="E50" s="16"/>
+      <c r="F50" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G50" s="45"/>
+      <c r="G50" s="38"/>
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="42" t="s">
+      <c r="E51" s="16"/>
+      <c r="F51" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="G51" s="45"/>
+      <c r="G51" s="38"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E52" s="20"/>
-      <c r="F52" s="42" t="s">
+      <c r="E52" s="16"/>
+      <c r="F52" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="G52" s="45"/>
+      <c r="G52" s="38"/>
     </row>
     <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E53" s="20"/>
-      <c r="F53" s="42" t="s">
+      <c r="E53" s="16"/>
+      <c r="F53" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="G53" s="45"/>
+      <c r="G53" s="38"/>
     </row>
     <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E54" s="20"/>
-      <c r="F54" s="12" t="s">
+      <c r="E54" s="16"/>
+      <c r="F54" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="G54" s="21"/>
+      <c r="G54" s="38"/>
     </row>
     <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E55" s="20"/>
-      <c r="F55" s="13" t="s">
+      <c r="E55" s="16"/>
+      <c r="F55" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="G55" s="21"/>
+      <c r="G55" s="38"/>
     </row>
     <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E56" s="20"/>
-      <c r="F56" s="12" t="s">
+      <c r="E56" s="16"/>
+      <c r="F56" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G56" s="21"/>
+      <c r="G56" s="38"/>
     </row>
     <row r="57" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E57" s="34"/>
-      <c r="F57" s="23" t="s">
+      <c r="E57" s="27"/>
+      <c r="F57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="35"/>
+      <c r="G57" s="28"/>
     </row>
     <row r="71" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
